--- a/AAII_Financials/Quarterly/WTRE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WTRE_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="92">
   <si>
     <t>WTRE</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,98 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3">
+        <v>174800</v>
+      </c>
+      <c r="F8" s="3">
         <v>145900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>182000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>215200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>164400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>179800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>163700</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -771,8 +784,14 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -800,8 +819,14 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,8 +838,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -842,8 +869,14 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,37 +904,49 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>28400</v>
+      </c>
+      <c r="E14" s="3">
+        <v>29800</v>
+      </c>
+      <c r="F14" s="3">
         <v>27600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>35400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>34000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>33800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>38000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>35000</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -929,8 +974,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,66 +990,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>150500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>179900</v>
+      </c>
+      <c r="F17" s="3">
         <v>136300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>162800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>162300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>143300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>166300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>144800</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="F18" s="3">
         <v>9600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>19200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>52900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>21100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>13500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>18900</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,86 +1075,100 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>2600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-1300</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="F21" s="3">
         <v>9800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>18800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>52600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>23800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>14100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>17700</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F22" s="3">
         <v>2800</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
@@ -1097,37 +1176,49 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-266600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="F23" s="3">
         <v>6900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>18800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>52500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>23700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>14100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>17700</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1149,14 +1240,20 @@
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,66 +1281,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-266600</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="F26" s="3">
         <v>6900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>18700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>52500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>23700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>14000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>17700</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-267800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="F27" s="3">
         <v>200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>13800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>47600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>18800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>9100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>12800</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1386,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1300,8 +1421,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1456,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,66 +1491,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="3">
+        <v>7600</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-2600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>1300</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-267800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="F33" s="3">
         <v>200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>13800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>47600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>18800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>9100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>12800</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,71 +1596,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-267800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="F35" s="3">
         <v>200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>13800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>47600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>18800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>9100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>12800</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1690,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,26 +1705,28 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>96600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>102400</v>
+      </c>
+      <c r="F41" s="3">
         <v>80400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>69000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>56300</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1563,8 +1736,14 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1592,26 +1771,32 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>308300</v>
+      </c>
+      <c r="E43" s="3">
+        <v>289900</v>
+      </c>
+      <c r="F43" s="3">
         <v>327500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>258000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>315400</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1621,8 +1806,14 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1650,26 +1841,32 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>128600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>132600</v>
+      </c>
+      <c r="F45" s="3">
         <v>129900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>79500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>73000</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1679,8 +1876,14 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1708,26 +1911,32 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2168900</v>
+      </c>
+      <c r="E47" s="3">
+        <v>2379800</v>
+      </c>
+      <c r="F47" s="3">
         <v>2412300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>2537900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>2573500</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1737,23 +1946,29 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>900</v>
+      </c>
+      <c r="E48" s="3">
         <v>1000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G48" s="3">
         <v>1100</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1766,8 +1981,14 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1780,11 +2001,11 @@
       <c r="F49" s="3">
         <v>7700</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
+      <c r="G49" s="3">
+        <v>7700</v>
+      </c>
+      <c r="H49" s="3">
+        <v>7700</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -1795,8 +2016,14 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +2051,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,26 +2086,32 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>343900</v>
+      </c>
+      <c r="E52" s="3">
+        <v>329300</v>
+      </c>
+      <c r="F52" s="3">
         <v>357600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>232200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>256700</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1882,8 +2121,14 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,26 +2156,32 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3406900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>3550900</v>
+      </c>
+      <c r="F54" s="3">
         <v>3611500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>3468500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>3552900</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1940,8 +2191,14 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2210,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,8 +2225,10 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1995,26 +2256,32 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>576500</v>
+      </c>
+      <c r="E58" s="3">
+        <v>484300</v>
+      </c>
+      <c r="F58" s="3">
         <v>519200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>558300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>652700</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2024,26 +2291,32 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2000900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1948600</v>
+      </c>
+      <c r="F59" s="3">
         <v>1887800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1715300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1719300</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2053,8 +2326,14 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2082,19 +2361,25 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>172500</v>
+      </c>
+      <c r="E61" s="3">
         <v>172400</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>172400</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2111,8 +2396,14 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2140,8 +2431,14 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2466,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2501,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,26 +2536,32 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2790600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2626200</v>
+      </c>
+      <c r="F66" s="3">
         <v>2598400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2286100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2389900</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2256,8 +2571,14 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2590,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2621,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2656,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2336,17 +2671,17 @@
         <v>52300</v>
       </c>
       <c r="E70" s="3">
+        <v>52300</v>
+      </c>
+      <c r="F70" s="3">
+        <v>52300</v>
+      </c>
+      <c r="G70" s="3">
         <v>221200</v>
       </c>
-      <c r="F70" s="3">
+      <c r="H70" s="3">
         <v>221100</v>
       </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
       <c r="I70" s="3">
         <v>0</v>
       </c>
@@ -2356,8 +2691,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,26 +2726,32 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-224700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>43500</v>
+      </c>
+      <c r="F72" s="3">
         <v>60300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>60200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>46400</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2414,8 +2761,14 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2796,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2831,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,26 +2866,32 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>564100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>872400</v>
+      </c>
+      <c r="F76" s="3">
         <v>960800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>961300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>941900</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2530,8 +2901,14 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,71 +2936,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-267800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="F81" s="3">
         <v>200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>13800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>47600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>18800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>9100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>12800</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,8 +3030,10 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2658,14 +3055,20 @@
       <c r="I83" s="3">
         <v>0</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +3096,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +3131,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +3166,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +3201,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,37 +3236,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>62100</v>
+      </c>
+      <c r="F89" s="3">
         <v>61300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>45600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>70300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>81900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>62200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>30200</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,13 +3290,15 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>0</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>3</v>
@@ -2865,23 +3306,29 @@
       <c r="F91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3356,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,37 +3391,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-111600</v>
+      </c>
+      <c r="E94" s="3">
+        <v>69100</v>
+      </c>
+      <c r="F94" s="3">
         <v>-6700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>67000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-31900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-67300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-179900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>22900</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,8 +3445,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3009,8 +3476,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3511,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3546,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,91 +3581,115 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>88200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-112200</v>
+      </c>
+      <c r="F100" s="3">
         <v>-42200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-99300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-45900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>4800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>111500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-54400</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F101" s="3">
         <v>-1000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-2200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>800</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E102" s="3">
+        <v>22000</v>
+      </c>
+      <c r="F102" s="3">
         <v>11400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>12700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-7200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>19000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-8400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-500</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K102" s="3" t="s">
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WTRE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WTRE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="92">
   <si>
     <t>WTRE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,98 +665,105 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="D8" s="3">
+        <v>336200</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3">
         <v>174800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>145900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>182000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>215200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>164400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>179800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>163700</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -790,8 +797,11 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +835,11 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,8 +853,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -875,8 +889,11 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,43 +927,49 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>29500</v>
+      </c>
+      <c r="E14" s="3">
         <v>28400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>29800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>27600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>35400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>34000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>33800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>38000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>35000</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -980,8 +1003,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,78 +1018,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>146400</v>
+      </c>
+      <c r="E17" s="3">
         <v>150500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>179900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>136300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>162800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>162300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>143300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>166300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>144800</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="3">
+      <c r="D18" s="3">
+        <v>189800</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="3">
         <v>-5100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>9600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>19200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>52900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>21100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>13500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>18900</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,78 +1110,85 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="3">
+      <c r="D20" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="3">
         <v>-7600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-400</v>
       </c>
       <c r="H20" s="3">
         <v>-400</v>
       </c>
       <c r="I20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J20" s="3">
         <v>2600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1300</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="3">
+      <c r="D21" s="3">
+        <v>192400</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3">
         <v>-12700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>9800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>18800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>52600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>23800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>14100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>17700</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1156,22 +1196,22 @@
         <v>2900</v>
       </c>
       <c r="E22" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F22" s="3">
         <v>3000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2800</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
@@ -1182,48 +1222,54 @@
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>189500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-266600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-15700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>6900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>18800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>52500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>23700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>14100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>17700</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1246,14 +1292,17 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
+      <c r="L24" s="3">
+        <v>0</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1336,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>189900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-266600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-15700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>6900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>18700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>52500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>23700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>14000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>17700</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>188800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-267800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-16900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>13800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>47600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>18800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>9100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>12800</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1450,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1488,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1526,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,78 +1564,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3">
+      <c r="D32" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="3">
         <v>7600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
-      </c>
-      <c r="G32" s="3">
-        <v>400</v>
       </c>
       <c r="H32" s="3">
         <v>400</v>
       </c>
       <c r="I32" s="3">
+        <v>400</v>
+      </c>
+      <c r="J32" s="3">
         <v>-2600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1300</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>188800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-267800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-16900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>13800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>47600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>18800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>9100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>12800</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1678,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>188800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-267800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-16900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>13800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>47600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>18800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>9100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>12800</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1777,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,29 +1793,30 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>107700</v>
+      </c>
+      <c r="E41" s="3">
         <v>96600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>102400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>80400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>69000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>56300</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1742,8 +1829,11 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1777,29 +1867,32 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>289500</v>
+      </c>
+      <c r="E43" s="3">
         <v>308300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>289900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>327500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>258000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>315400</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1812,8 +1905,11 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1847,29 +1943,32 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>131900</v>
+      </c>
+      <c r="E45" s="3">
         <v>128600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>132600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>129900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>79500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>73000</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1882,8 +1981,11 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1917,29 +2019,32 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2269300</v>
+      </c>
+      <c r="E47" s="3">
         <v>2168900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2379800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2412300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2537900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2573500</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1952,26 +2057,29 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>800</v>
+      </c>
+      <c r="E48" s="3">
         <v>900</v>
-      </c>
-      <c r="E48" s="3">
-        <v>1000</v>
       </c>
       <c r="F48" s="3">
         <v>1000</v>
       </c>
       <c r="G48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H48" s="3">
         <v>1100</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1987,8 +2095,11 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2007,8 +2118,8 @@
       <c r="H49" s="3">
         <v>7700</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
+      <c r="I49" s="3">
+        <v>7700</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2022,8 +2133,11 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2171,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,29 +2209,32 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>370100</v>
+      </c>
+      <c r="E52" s="3">
         <v>343900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>329300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>357600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>232200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>256700</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2127,8 +2247,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,29 +2285,32 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3547800</v>
+      </c>
+      <c r="E54" s="3">
         <v>3406900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3550900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3611500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3468500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3552900</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2197,8 +2323,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2341,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,8 +2357,9 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2262,29 +2393,32 @@
       <c r="M57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>472400</v>
+      </c>
+      <c r="E58" s="3">
         <v>576500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>484300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>519200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>558300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>652700</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2297,29 +2431,32 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2047700</v>
+      </c>
+      <c r="E59" s="3">
         <v>2000900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1948600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1887800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1715300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1719300</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2332,8 +2469,11 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2367,22 +2507,25 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>172600</v>
+      </c>
+      <c r="E61" s="3">
         <v>172500</v>
-      </c>
-      <c r="E61" s="3">
-        <v>172400</v>
       </c>
       <c r="F61" s="3">
         <v>172400</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>172400</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2402,8 +2545,11 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2437,8 +2583,11 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2621,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2659,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,29 +2697,32 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2719300</v>
+      </c>
+      <c r="E66" s="3">
         <v>2790600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2626200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2598400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2286100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2389900</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2577,8 +2735,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2753,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2789,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,13 +2827,16 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>52300</v>
+        <v>52400</v>
       </c>
       <c r="E70" s="3">
         <v>52300</v>
@@ -2677,14 +2845,14 @@
         <v>52300</v>
       </c>
       <c r="G70" s="3">
+        <v>52300</v>
+      </c>
+      <c r="H70" s="3">
         <v>221200</v>
       </c>
-      <c r="H70" s="3">
+      <c r="I70" s="3">
         <v>221100</v>
       </c>
-      <c r="I70" s="3">
-        <v>0</v>
-      </c>
       <c r="J70" s="3">
         <v>0</v>
       </c>
@@ -2697,8 +2865,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,29 +2903,32 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-35900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-224700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>43500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>60300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>60200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>46400</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2767,8 +2941,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2979,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3017,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,29 +3055,32 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>776200</v>
+      </c>
+      <c r="E76" s="3">
         <v>564100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>872400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>960800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>961300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>941900</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2907,8 +3093,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3131,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>188800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-267800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-16900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>13800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>47600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>18800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>9100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>12800</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,8 +3230,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3061,14 +3260,17 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3304,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3342,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3380,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3418,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,43 +3456,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>62800</v>
+      </c>
+      <c r="E89" s="3">
         <v>24600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>62100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>61300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>45600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>70300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>81900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>62200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>30200</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,16 +3512,17 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>3</v>
@@ -3312,8 +3533,8 @@
       <c r="H91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -3321,14 +3542,17 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3586,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,43 +3624,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>52900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-111600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>69100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-6700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>67000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-31900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-67300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-179900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>22900</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3680,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3716,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3754,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3792,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,109 +3830,121 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-105200</v>
+      </c>
+      <c r="E100" s="3">
         <v>88200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-112200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-42200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-99300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-45900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>4800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>111500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-54400</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>600</v>
+      </c>
+      <c r="E101" s="3">
         <v>-7000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>3000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>800</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-5900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>22000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>11400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>12700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-7200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>19000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-8400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-500</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WTRE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WTRE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="92">
   <si>
     <t>WTRE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,105 +665,112 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>245500</v>
+      </c>
+      <c r="E8" s="3">
         <v>336200</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="F8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3">
         <v>174800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>145900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>182000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>215200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>164400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>179800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>163700</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -800,8 +807,11 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +848,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,8 +867,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -892,8 +906,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,46 +947,52 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>31100</v>
+      </c>
+      <c r="E14" s="3">
         <v>29500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>28400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>29800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>27600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>35400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>34000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>33800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>38000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>35000</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,8 +1029,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1045,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>160400</v>
+      </c>
+      <c r="E17" s="3">
         <v>146400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>150500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>179900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>136300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>162800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>162300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>143300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>166300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>144800</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>85100</v>
+      </c>
+      <c r="E18" s="3">
         <v>189800</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="F18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="3">
         <v>-5100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>9600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>19200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>52900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>21100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>13500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>18900</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,84 +1144,91 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E20" s="3">
         <v>2600</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="F20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="3">
         <v>-7600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-400</v>
       </c>
       <c r="I20" s="3">
         <v>-400</v>
       </c>
       <c r="J20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K20" s="3">
         <v>2600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1300</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>82100</v>
+      </c>
+      <c r="E21" s="3">
         <v>192400</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="F21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3">
         <v>-12700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>9800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>18800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>52600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>23800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>14100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>17700</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1199,22 +1239,22 @@
         <v>2900</v>
       </c>
       <c r="F22" s="3">
+        <v>2900</v>
+      </c>
+      <c r="G22" s="3">
         <v>3000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2800</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
@@ -1225,55 +1265,61 @@
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>79200</v>
+      </c>
+      <c r="E23" s="3">
         <v>189500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-266600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-15700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>6900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>18800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>52500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>23700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>14100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>17700</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-400</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
@@ -1295,14 +1341,17 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
+      <c r="M24" s="3">
+        <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1388,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>79200</v>
+      </c>
+      <c r="E26" s="3">
         <v>189900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-266600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-15700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>6900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>18700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>52500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>23700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>14000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>17700</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>78100</v>
+      </c>
+      <c r="E27" s="3">
         <v>188800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-267800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-16900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>13800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>47600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>18800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>9100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>12800</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1511,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1552,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1593,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,84 +1634,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2600</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="F32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="3">
         <v>7600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
-      </c>
-      <c r="H32" s="3">
-        <v>400</v>
       </c>
       <c r="I32" s="3">
         <v>400</v>
       </c>
       <c r="J32" s="3">
+        <v>400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-2600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1300</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>78100</v>
+      </c>
+      <c r="E33" s="3">
         <v>188800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-267800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-16900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>13800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>47600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>18800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>9100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>12800</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1757,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>78100</v>
+      </c>
+      <c r="E35" s="3">
         <v>188800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-267800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-16900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>13800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>47600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>18800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>9100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>12800</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1863,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,32 +1880,33 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>195300</v>
+      </c>
+      <c r="E41" s="3">
         <v>107700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>96600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>102400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>80400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>69000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>56300</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1832,8 +1919,11 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,32 +1960,35 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>265500</v>
+      </c>
+      <c r="E43" s="3">
         <v>289500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>308300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>289900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>327500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>258000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>315400</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1908,8 +2001,11 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1946,8 +2042,11 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1955,23 +2054,23 @@
         <v>131900</v>
       </c>
       <c r="E45" s="3">
+        <v>131900</v>
+      </c>
+      <c r="F45" s="3">
         <v>128600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>132600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>129900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>79500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>73000</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1984,8 +2083,11 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2022,32 +2124,35 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2289300</v>
+      </c>
+      <c r="E47" s="3">
         <v>2269300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2168900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2379800</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2412300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2537900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2573500</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2060,8 +2165,11 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2069,20 +2177,20 @@
         <v>800</v>
       </c>
       <c r="E48" s="3">
+        <v>800</v>
+      </c>
+      <c r="F48" s="3">
         <v>900</v>
-      </c>
-      <c r="F48" s="3">
-        <v>1000</v>
       </c>
       <c r="G48" s="3">
         <v>1000</v>
       </c>
       <c r="H48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I48" s="3">
         <v>1100</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2098,8 +2206,11 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2121,8 +2232,8 @@
       <c r="I49" s="3">
         <v>7700</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
+      <c r="J49" s="3">
+        <v>7700</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
@@ -2136,8 +2247,11 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2288,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,32 +2329,35 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>350400</v>
+      </c>
+      <c r="E52" s="3">
         <v>370100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>343900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>329300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>357600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>232200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>256700</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2250,8 +2370,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,32 +2411,35 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3653200</v>
+      </c>
+      <c r="E54" s="3">
         <v>3547800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3406900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3550900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3611500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3468500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3552900</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2326,8 +2452,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2471,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,8 +2488,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2396,32 +2527,35 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>390200</v>
+      </c>
+      <c r="E58" s="3">
         <v>472400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>576500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>484300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>519200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>558300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>652700</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2434,32 +2568,35 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2141900</v>
+      </c>
+      <c r="E59" s="3">
         <v>2047700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2000900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1948600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1887800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1715300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1719300</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2472,8 +2609,11 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2510,8 +2650,11 @@
       <c r="N60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2519,16 +2662,16 @@
         <v>172600</v>
       </c>
       <c r="E61" s="3">
+        <v>172600</v>
+      </c>
+      <c r="F61" s="3">
         <v>172500</v>
-      </c>
-      <c r="F61" s="3">
-        <v>172400</v>
       </c>
       <c r="G61" s="3">
         <v>172400</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>172400</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2548,8 +2691,11 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2586,8 +2732,11 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2773,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2814,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,32 +2855,35 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2733900</v>
+      </c>
+      <c r="E66" s="3">
         <v>2719300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2790600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2626200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2598400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2286100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2389900</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2738,8 +2896,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2915,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2954,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2995,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2839,7 +3007,7 @@
         <v>52400</v>
       </c>
       <c r="E70" s="3">
-        <v>52300</v>
+        <v>52400</v>
       </c>
       <c r="F70" s="3">
         <v>52300</v>
@@ -2848,14 +3016,14 @@
         <v>52300</v>
       </c>
       <c r="H70" s="3">
+        <v>52300</v>
+      </c>
+      <c r="I70" s="3">
         <v>221200</v>
       </c>
-      <c r="I70" s="3">
+      <c r="J70" s="3">
         <v>221100</v>
       </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
       <c r="K70" s="3">
         <v>0</v>
       </c>
@@ -2868,8 +3036,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,32 +3077,35 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>42200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-35900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-224700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>43500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>60300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>60200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>46400</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2944,8 +3118,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3159,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3200,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,32 +3241,35 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>866900</v>
+      </c>
+      <c r="E76" s="3">
         <v>776200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>564100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>872400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>960800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>961300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>941900</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3096,8 +3282,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3323,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>78100</v>
+      </c>
+      <c r="E81" s="3">
         <v>188800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-267800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-16900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>13800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>47600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>18800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>9100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>12800</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,8 +3429,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3263,14 +3462,17 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
+      <c r="M83" s="3">
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3509,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3550,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3591,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3632,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3673,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>55300</v>
+      </c>
+      <c r="E89" s="3">
         <v>62800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>24600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>62100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>61300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>45600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>70300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>81900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>62200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>30200</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,8 +3733,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3524,8 +3745,8 @@
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
@@ -3536,8 +3757,8 @@
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -3545,14 +3766,17 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3813,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,46 +3854,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>112200</v>
+      </c>
+      <c r="E94" s="3">
         <v>52900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-111600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>69100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-6700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>67000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-31900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-67300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-179900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>22900</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3914,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +3953,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3994,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4035,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,118 +4076,130 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-83200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-105200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>88200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-112200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-42200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-99300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-45900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>4800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>111500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-54400</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E101" s="3">
         <v>600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-7000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>3000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>800</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>87700</v>
+      </c>
+      <c r="E102" s="3">
         <v>11100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-5900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>22000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>11400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>12700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-7200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>19000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-8400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-500</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WTRE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WTRE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="92">
   <si>
     <t>WTRE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,112 +665,118 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>242200</v>
+      </c>
+      <c r="E8" s="3">
         <v>245500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>336200</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="G8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="3">
         <v>174800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>145900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>182000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>215200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>164400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>179800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>163700</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -810,8 +816,11 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,8 +860,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -868,8 +880,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -909,8 +922,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,49 +966,55 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>36600</v>
+      </c>
+      <c r="E14" s="3">
         <v>31100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>29500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>28400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>29800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>27600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>35400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>34000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>33800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>38000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>35000</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1032,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,90 +1071,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>166300</v>
+      </c>
+      <c r="E17" s="3">
         <v>160400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>146400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>150500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>179900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>136300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>162800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>162300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>143300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>166300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>144800</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>75900</v>
+      </c>
+      <c r="E18" s="3">
         <v>85100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>189800</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="G18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="3">
         <v>-5100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>9600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>19200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>52900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>21100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>13500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>18900</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,90 +1177,97 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2600</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="G20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="3">
         <v>-7600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-400</v>
       </c>
       <c r="J20" s="3">
         <v>-400</v>
       </c>
       <c r="K20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L20" s="3">
         <v>2600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1300</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>65700</v>
+      </c>
+      <c r="E21" s="3">
         <v>82100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>192400</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3">
         <v>-12700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>9800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>18800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>52600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>23800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>14100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>17700</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1242,22 +1281,22 @@
         <v>2900</v>
       </c>
       <c r="G22" s="3">
+        <v>2900</v>
+      </c>
+      <c r="H22" s="3">
         <v>3000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2800</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
@@ -1268,61 +1307,67 @@
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>62800</v>
+      </c>
+      <c r="E23" s="3">
         <v>79200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>189500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-266600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-15700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>6900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>18800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>52500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>23700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>14100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>17700</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>400</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-400</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
@@ -1344,14 +1389,17 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
+      <c r="N24" s="3">
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>62400</v>
+      </c>
+      <c r="E26" s="3">
         <v>79200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>189900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-266600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-15700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>6900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>18700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>52500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>23700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>14000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>17700</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>61400</v>
+      </c>
+      <c r="E27" s="3">
         <v>78100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>188800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-267800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-16900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>13800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>47600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>18800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>9100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>12800</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1555,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,90 +1703,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E32" s="3">
         <v>3000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2600</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="G32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H32" s="3">
         <v>7600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
-      </c>
-      <c r="I32" s="3">
-        <v>400</v>
       </c>
       <c r="J32" s="3">
         <v>400</v>
       </c>
       <c r="K32" s="3">
+        <v>400</v>
+      </c>
+      <c r="L32" s="3">
         <v>-2600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1300</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>61400</v>
+      </c>
+      <c r="E33" s="3">
         <v>78100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>188800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-267800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-16900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>13800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>47600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>18800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>9100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>12800</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>61400</v>
+      </c>
+      <c r="E35" s="3">
         <v>78100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>188800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-267800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-16900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>13800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>47600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>18800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>9100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>12800</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,35 +1966,36 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>211500</v>
+      </c>
+      <c r="E41" s="3">
         <v>195300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>107700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>96600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>102400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>80400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>69000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>56300</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1922,8 +2008,11 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1963,35 +2052,38 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>261800</v>
+      </c>
+      <c r="E43" s="3">
         <v>265500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>289500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>308300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>289900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>327500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>258000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>315400</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2004,8 +2096,11 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2045,35 +2140,38 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>131900</v>
+        <v>122300</v>
       </c>
       <c r="E45" s="3">
         <v>131900</v>
       </c>
       <c r="F45" s="3">
+        <v>131900</v>
+      </c>
+      <c r="G45" s="3">
         <v>128600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>132600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>129900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>79500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>73000</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2086,8 +2184,11 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2127,35 +2228,38 @@
       <c r="O46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2080200</v>
+      </c>
+      <c r="E47" s="3">
         <v>2289300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2269300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2168900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2379800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2412300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2537900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2573500</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2168,32 +2272,35 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E48" s="3">
         <v>800</v>
       </c>
       <c r="F48" s="3">
+        <v>800</v>
+      </c>
+      <c r="G48" s="3">
         <v>900</v>
-      </c>
-      <c r="G48" s="3">
-        <v>1000</v>
       </c>
       <c r="H48" s="3">
         <v>1000</v>
       </c>
       <c r="I48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J48" s="3">
         <v>1100</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2209,8 +2316,11 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2235,8 +2345,8 @@
       <c r="J49" s="3">
         <v>7700</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
+      <c r="K49" s="3">
+        <v>7700</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
@@ -2250,8 +2360,11 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,35 +2448,38 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>418700</v>
+      </c>
+      <c r="E52" s="3">
         <v>350400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>370100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>343900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>329300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>357600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>232200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>256700</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2373,8 +2492,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,35 +2536,38 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3532100</v>
+      </c>
+      <c r="E54" s="3">
         <v>3653200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3547800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3406900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3550900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3611500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3468500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3552900</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2455,8 +2580,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,8 +2618,9 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2530,35 +2660,38 @@
       <c r="O57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>211600</v>
+      </c>
+      <c r="E58" s="3">
         <v>390200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>472400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>576500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>484300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>519200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>558300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>652700</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2571,35 +2704,38 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2118900</v>
+      </c>
+      <c r="E59" s="3">
         <v>2141900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2047700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2000900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1948600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1887800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1715300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1719300</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2612,8 +2748,11 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2653,28 +2792,31 @@
       <c r="O60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>172600</v>
+        <v>172700</v>
       </c>
       <c r="E61" s="3">
         <v>172600</v>
       </c>
       <c r="F61" s="3">
+        <v>172600</v>
+      </c>
+      <c r="G61" s="3">
         <v>172500</v>
-      </c>
-      <c r="G61" s="3">
-        <v>172400</v>
       </c>
       <c r="H61" s="3">
         <v>172400</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>172400</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2694,8 +2836,11 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2735,8 +2880,11 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,35 +3012,38 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2538300</v>
+      </c>
+      <c r="E66" s="3">
         <v>2733900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2719300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2790600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2626200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2598400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2286100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2389900</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2899,8 +3056,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3010,7 +3177,7 @@
         <v>52400</v>
       </c>
       <c r="F70" s="3">
-        <v>52300</v>
+        <v>52400</v>
       </c>
       <c r="G70" s="3">
         <v>52300</v>
@@ -3019,14 +3186,14 @@
         <v>52300</v>
       </c>
       <c r="I70" s="3">
+        <v>52300</v>
+      </c>
+      <c r="J70" s="3">
         <v>221200</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>221100</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
@@ -3039,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,35 +3250,38 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>103600</v>
+      </c>
+      <c r="E72" s="3">
         <v>42200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-35900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-224700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>43500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>60300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>60200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>46400</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3121,8 +3294,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,35 +3426,38 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>941300</v>
+      </c>
+      <c r="E76" s="3">
         <v>866900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>776200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>564100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>872400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>960800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>961300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>941900</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3285,8 +3470,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>61400</v>
+      </c>
+      <c r="E81" s="3">
         <v>78100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>188800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-267800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-16900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>13800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>47600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>18800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>9100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>12800</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,8 +3627,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3465,14 +3663,17 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,49 +3889,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>48100</v>
+      </c>
+      <c r="E89" s="3">
         <v>55300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>62800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>24600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>62100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>61300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>45600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>70300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>81900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>62200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>30200</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,8 +3953,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3748,8 +3968,8 @@
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -3760,8 +3980,8 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -3769,14 +3989,17 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,49 +4083,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>140200</v>
+      </c>
+      <c r="E94" s="3">
         <v>112200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>52900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-111600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>69100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-6700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>67000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-31900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-67300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-179900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>22900</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,127 +4321,139 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-179600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-83200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-105200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>88200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-112200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-42200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-99300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-45900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>4800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>111500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-54400</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E101" s="3">
         <v>3400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-7000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>3000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>800</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E102" s="3">
         <v>87700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>11100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-5900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>22000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>11400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>12700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-7200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>19000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-8400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-500</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WTRE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WTRE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="92">
   <si>
     <t>WTRE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,118 +665,125 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>217800</v>
+      </c>
+      <c r="E8" s="3">
         <v>242200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>245500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>336200</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="H8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="3">
         <v>174800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>145900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>182000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>215200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>164400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>179800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>163700</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -819,8 +826,11 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +873,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,52 +986,58 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>35100</v>
+      </c>
+      <c r="E14" s="3">
         <v>36600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>31100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>29500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>28400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>29800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>27600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>35400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>34000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>33800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>38000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>35000</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>171700</v>
+      </c>
+      <c r="E17" s="3">
         <v>166300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>160400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>146400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>150500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>179900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>136300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>162800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>162300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>143300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>166300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>144800</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>46100</v>
+      </c>
+      <c r="E18" s="3">
         <v>75900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>85100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>189800</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="H18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="3">
         <v>-5100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>9600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>19200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>52900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>21100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>13500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>18900</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,96 +1211,103 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-10200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-3000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2600</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="H20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="3">
         <v>-7600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-400</v>
       </c>
       <c r="K20" s="3">
         <v>-400</v>
       </c>
       <c r="L20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M20" s="3">
         <v>2600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1300</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>44800</v>
+      </c>
+      <c r="E21" s="3">
         <v>65700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>82100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>192400</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3">
         <v>-12700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>9800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>18800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>52600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>23800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>14100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>17700</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1284,22 +1324,22 @@
         <v>2900</v>
       </c>
       <c r="H22" s="3">
+        <v>2900</v>
+      </c>
+      <c r="I22" s="3">
         <v>3000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2800</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
@@ -1310,67 +1350,73 @@
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>41900</v>
+      </c>
+      <c r="E23" s="3">
         <v>62800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>79200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>189500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-266600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-15700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>6900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>18800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>52500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>23700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>14100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>17700</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-400</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
@@ -1392,14 +1438,17 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
+      <c r="O24" s="3">
+        <v>0</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>41900</v>
+      </c>
+      <c r="E26" s="3">
         <v>62400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>79200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>189900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-266600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-15700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>6900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>18700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>52500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>23700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>14000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>17700</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>40900</v>
+      </c>
+      <c r="E27" s="3">
         <v>61400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>78100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>188800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-267800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-16900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>13800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>47600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>18800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>9100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>12800</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1773,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E32" s="3">
         <v>10200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>3000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2600</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="H32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32" s="3">
         <v>7600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
-      </c>
-      <c r="J32" s="3">
-        <v>400</v>
       </c>
       <c r="K32" s="3">
         <v>400</v>
       </c>
       <c r="L32" s="3">
+        <v>400</v>
+      </c>
+      <c r="M32" s="3">
         <v>-2600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1300</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>40900</v>
+      </c>
+      <c r="E33" s="3">
         <v>61400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>78100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>188800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-267800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-16900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>13800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>47600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>18800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>9100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>12800</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>40900</v>
+      </c>
+      <c r="E35" s="3">
         <v>61400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>78100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>188800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-267800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-16900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>13800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>47600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>18800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>9100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>12800</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,38 +2053,39 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>236200</v>
+      </c>
+      <c r="E41" s="3">
         <v>211500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>195300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>107700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>96600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>102400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>80400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>69000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>56300</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2011,8 +2098,11 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,38 +2145,41 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>320600</v>
+      </c>
+      <c r="E43" s="3">
         <v>261800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>265500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>289500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>308300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>289900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>327500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>258000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>315400</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2099,8 +2192,11 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,38 +2239,41 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>113200</v>
+      </c>
+      <c r="E45" s="3">
         <v>122300</v>
-      </c>
-      <c r="E45" s="3">
-        <v>131900</v>
       </c>
       <c r="F45" s="3">
         <v>131900</v>
       </c>
       <c r="G45" s="3">
+        <v>131900</v>
+      </c>
+      <c r="H45" s="3">
         <v>128600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>132600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>129900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>79500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>73000</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2187,8 +2286,11 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2231,38 +2333,41 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>2088300</v>
+      </c>
+      <c r="E47" s="3">
         <v>2080200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>2289300</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>2269300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>2168900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>2379800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>2412300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>2537900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2573500</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2275,8 +2380,11 @@
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2284,26 +2392,26 @@
         <v>700</v>
       </c>
       <c r="E48" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F48" s="3">
         <v>800</v>
       </c>
       <c r="G48" s="3">
+        <v>800</v>
+      </c>
+      <c r="H48" s="3">
         <v>900</v>
-      </c>
-      <c r="H48" s="3">
-        <v>1000</v>
       </c>
       <c r="I48" s="3">
         <v>1000</v>
       </c>
       <c r="J48" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K48" s="3">
         <v>1100</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2319,8 +2427,11 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2348,8 +2459,8 @@
       <c r="K49" s="3">
         <v>7700</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
+      <c r="L49" s="3">
+        <v>7700</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,38 +2568,41 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>483600</v>
+      </c>
+      <c r="E52" s="3">
         <v>418700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>350400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>370100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>343900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>329300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>357600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>232200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>256700</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2495,8 +2615,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,38 +2662,41 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3703500</v>
+      </c>
+      <c r="E54" s="3">
         <v>3532100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3653200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3547800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3406900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3550900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3611500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3468500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3552900</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2583,8 +2709,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2749,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2663,38 +2794,41 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>250600</v>
+      </c>
+      <c r="E58" s="3">
         <v>211600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>390200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>472400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>576500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>484300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>519200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>558300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>652700</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2707,38 +2841,41 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2222700</v>
+      </c>
+      <c r="E59" s="3">
         <v>2118900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2141900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2047700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2000900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1948600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1887800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1715300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1719300</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2751,8 +2888,11 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2795,31 +2935,34 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>172800</v>
+      </c>
+      <c r="E61" s="3">
         <v>172700</v>
-      </c>
-      <c r="E61" s="3">
-        <v>172600</v>
       </c>
       <c r="F61" s="3">
         <v>172600</v>
       </c>
       <c r="G61" s="3">
+        <v>172600</v>
+      </c>
+      <c r="H61" s="3">
         <v>172500</v>
-      </c>
-      <c r="H61" s="3">
-        <v>172400</v>
       </c>
       <c r="I61" s="3">
         <v>172400</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>172400</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2839,8 +2982,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,38 +3170,41 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2674000</v>
+      </c>
+      <c r="E66" s="3">
         <v>2538300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2733900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2719300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2790600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2626200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2598400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2286100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2389900</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3059,8 +3217,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3180,7 +3348,7 @@
         <v>52400</v>
       </c>
       <c r="G70" s="3">
-        <v>52300</v>
+        <v>52400</v>
       </c>
       <c r="H70" s="3">
         <v>52300</v>
@@ -3189,14 +3357,14 @@
         <v>52300</v>
       </c>
       <c r="J70" s="3">
+        <v>52300</v>
+      </c>
+      <c r="K70" s="3">
         <v>221200</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>221100</v>
       </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,38 +3424,41 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>144400</v>
+      </c>
+      <c r="E72" s="3">
         <v>103600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>42200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-35900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-224700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>43500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>60300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>60200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>46400</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3297,8 +3471,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,38 +3612,41 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>977000</v>
+      </c>
+      <c r="E76" s="3">
         <v>941300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>866900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>776200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>564100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>872400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>960800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>961300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>941900</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3473,8 +3659,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>40900</v>
+      </c>
+      <c r="E81" s="3">
         <v>61400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>78100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>188800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-267800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-16900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>13800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>47600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>18800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>9100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>12800</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3826,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3666,14 +3865,17 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
+      <c r="O83" s="3">
+        <v>0</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E89" s="3">
         <v>48100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>55300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>62800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>24600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>62100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>61300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>45600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>70300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>81900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>62200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>30200</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4174,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3971,8 +4192,8 @@
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3983,8 +4204,8 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -3992,14 +4213,17 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4313,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-17500</v>
+      </c>
+      <c r="E94" s="3">
         <v>140200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>112200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>52900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-111600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>69100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-6700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>67000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-31900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-67300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-179900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>22900</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4567,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>37900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-179600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-83200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-105200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>88200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-112200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-42200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-99300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-45900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>4800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>111500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-54400</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E101" s="3">
         <v>7400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>3400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-7000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>3000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-2200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>800</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>24700</v>
+      </c>
+      <c r="E102" s="3">
         <v>16100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>87700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>11100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-5900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>22000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>11400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>12700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-7200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>19000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-8400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-500</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
